--- a/public/actius.xlsx
+++ b/public/actius.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5372E-F030-4EB0-B3BC-39C8ABE4031D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{733A4C10-7412-422E-91FB-DEC856CC7876}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="13900" tabRatio="496" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Seguiment" sheetId="10" r:id="rId1"/>
+    <sheet name="LaPela" sheetId="11" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="50">
   <si>
     <t>Bitcoin</t>
   </si>
@@ -121,6 +122,63 @@
   </si>
   <si>
     <t>TR100</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Preu actual</t>
+  </si>
+  <si>
+    <t>Preu compra</t>
+  </si>
+  <si>
+    <t>Quantitat</t>
+  </si>
+  <si>
+    <t>Dividend</t>
+  </si>
+  <si>
+    <t>Data Compra</t>
+  </si>
+  <si>
+    <t>Usuari (vides)</t>
+  </si>
+  <si>
+    <t>Rendibilitat</t>
+  </si>
+  <si>
+    <t>Valor Inicial</t>
+  </si>
+  <si>
+    <t>Valor actual</t>
+  </si>
+  <si>
+    <t>Airbus</t>
+  </si>
+  <si>
+    <t>Amprius</t>
+  </si>
+  <si>
+    <t>Accenture</t>
+  </si>
+  <si>
+    <t>Microstrategy</t>
+  </si>
+  <si>
+    <t>Zijka</t>
+  </si>
+  <si>
+    <t>Lairap01</t>
+  </si>
+  <si>
+    <t>Mertianthro</t>
+  </si>
+  <si>
+    <t>Merkaartor</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -134,13 +192,34 @@
     <numFmt numFmtId="167" formatCode="0.0_ ;\-0.0\ "/>
     <numFmt numFmtId="168" formatCode="0.0000000000000_ ;\-0.0000000000000\ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -182,6 +261,22 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -254,87 +349,115 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="4" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="4" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="5" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="6" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +858,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K13" sqref="K13"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -811,14 +934,14 @@
       </c>
       <c r="B2" s="24">
         <f>(100*(H2/100+1))*(G2/100+1)*(F2/100+1)*(E2/100+1)*(D2/100+1)</f>
-        <v>399.83924924894615</v>
+        <v>314.82111281390223</v>
       </c>
       <c r="C2" s="25">
         <f>(1-(((100*(H2/100+1))*(G2/100+1)*(F2/100+1)*(E2/100+1)*(D2/100+1))/B2))*100</f>
         <v>0</v>
       </c>
       <c r="D2" s="10">
-        <v>18.660977732492725</v>
+        <v>-6.57</v>
       </c>
       <c r="E2" s="10">
         <v>126.6</v>
@@ -1120,7 +1243,7 @@
         <v>148.36189046959282</v>
       </c>
       <c r="C8" s="25">
-        <f t="shared" si="1"/>
+        <f>(1-(((100*(H8/100+1))*(G8/100+1)*(F8/100+1)*(E8/100+1)*(D8/100+1))/B8))*100</f>
         <v>-4.8780487804878092</v>
       </c>
       <c r="D8" s="10">
@@ -1787,7 +1910,7 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H21">
     <sortCondition descending="1" ref="B2:B21"/>
   </sortState>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="D2:D22">
     <cfRule type="colorScale" priority="2">
       <colorScale>
@@ -1842,4 +1965,351 @@
     <ignoredError sqref="B9 B11:B21" formula="1"/>
   </ignoredErrors>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC72BDB-53A5-475B-8435-148D56E17331}">
+  <dimension ref="A1:L14"/>
+  <sheetViews>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="13.1796875" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="3" max="3" width="11.453125" customWidth="1"/>
+    <col min="4" max="4" width="11.6328125" customWidth="1"/>
+    <col min="5" max="5" width="11.1796875" customWidth="1"/>
+    <col min="6" max="6" width="10.6328125" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" customWidth="1"/>
+    <col min="8" max="8" width="11.26953125" customWidth="1"/>
+    <col min="9" max="9" width="17.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
+      <c r="L1" s="15"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C2" s="34">
+        <v>45992</v>
+      </c>
+      <c r="D2" s="32">
+        <v>184.83</v>
+      </c>
+      <c r="E2" s="30">
+        <f>(B2)/D2</f>
+        <v>5.4103771032840982</v>
+      </c>
+      <c r="F2" s="31">
+        <v>0</v>
+      </c>
+      <c r="G2" s="31">
+        <v>184.89</v>
+      </c>
+      <c r="H2" s="32">
+        <f>(E2*G2)</f>
+        <v>1000.3246226261969</v>
+      </c>
+      <c r="I2" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="37" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C3" s="34">
+        <v>45993</v>
+      </c>
+      <c r="D3" s="32">
+        <v>181.33</v>
+      </c>
+      <c r="E3" s="30">
+        <f>(B3)/D3</f>
+        <v>5.5148072574863507</v>
+      </c>
+      <c r="F3" s="31">
+        <v>0</v>
+      </c>
+      <c r="G3" s="31">
+        <v>182.26</v>
+      </c>
+      <c r="H3" s="32">
+        <f>(E3*G3)</f>
+        <v>1005.1287707494622</v>
+      </c>
+      <c r="I3" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
+      <c r="L3" s="15"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C4" s="34">
+        <v>45992</v>
+      </c>
+      <c r="D4" s="30">
+        <v>10.61</v>
+      </c>
+      <c r="E4" s="30">
+        <f>(B4)/D4</f>
+        <v>94.250706880301607</v>
+      </c>
+      <c r="F4" s="29">
+        <v>0</v>
+      </c>
+      <c r="G4" s="29">
+        <v>10.85</v>
+      </c>
+      <c r="H4" s="32">
+        <f>(E4*G4)</f>
+        <v>1022.6201696512724</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A5" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C5" s="34">
+        <v>45992</v>
+      </c>
+      <c r="D5" s="30">
+        <v>192.58</v>
+      </c>
+      <c r="E5" s="30">
+        <f>(B5*0.8616)/D5</f>
+        <v>4.4739848374701419</v>
+      </c>
+      <c r="F5" s="31">
+        <v>0.89</v>
+      </c>
+      <c r="G5" s="29">
+        <v>190.5</v>
+      </c>
+      <c r="H5" s="32">
+        <f ca="1">((E5*G5)+(((TODAY()-C5)*((D5*(F5/100))*E5))/365))*1.1598</f>
+        <v>989.0754968469073</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="31">
+        <v>1000</v>
+      </c>
+      <c r="C6" s="34">
+        <v>45992</v>
+      </c>
+      <c r="D6" s="30">
+        <v>257.43</v>
+      </c>
+      <c r="E6" s="30">
+        <f>(B6)/D6</f>
+        <v>3.8845511401157595</v>
+      </c>
+      <c r="F6" s="29">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="G6" s="29">
+        <v>260.67</v>
+      </c>
+      <c r="H6" s="32">
+        <f ca="1">((E6*G6)+(((TODAY()-C6)*((D6*(F6/100))*E6))/365))</f>
+        <v>1014.2363566528792</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="15"/>
+      <c r="K6" s="15"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15"/>
+      <c r="K7" s="15"/>
+      <c r="L7" s="15"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A8" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="30">
+        <f ca="1">(((SUM(H2:H6)*100)/SUM(B2:B6)))-100</f>
+        <v>0.62770833053434671</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
+      <c r="L8" s="15"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A9" s="15"/>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
+      <c r="L9" s="15"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
+      <c r="L10" s="15"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
+      <c r="L11" s="15"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="8" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>